--- a/biology/Botanique/Dothideomycetidae/Dothideomycetidae.xlsx
+++ b/biology/Botanique/Dothideomycetidae/Dothideomycetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dothideomycetidae sont une sous-classe de champignons (Fungi) de la classe des Dothideomycetes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteurs) de ce taxon est Dothideomycetidae P.M. Kirk, P.F. Cannon, J.C. David &amp; Stalpers ex C.L. Schoch, Spatafora, Crous &amp; Shoemaker, 2007[1], créé en 2001[2], puis choisi dans une étude phylogénétique de 2007[3] pour désigner l'une des deux lignées principales de la classe des Dothideomycetes, l'autre étant la sous-classe des Pleosporomycetidae[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteurs) de ce taxon est Dothideomycetidae P.M. Kirk, P.F. Cannon, J.C. David &amp; Stalpers ex C.L. Schoch, Spatafora, Crous &amp; Shoemaker, 2007, créé en 2001, puis choisi dans une étude phylogénétique de 2007 pour désigner l'une des deux lignées principales de la classe des Dothideomycetes, l'autre étant la sous-classe des Pleosporomycetidae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des taxons de rang inférieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des genres, familles et ordres selon MycoBank                                            (17 avril 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des genres, familles et ordres selon MycoBank                                            (17 avril 2022) :
 Acerbia (Sacc.) Sacc. &amp; P. Syd., 1899
 Aenigmatomyces R.F. Castañeda &amp; W.B. Kendr., 1994
 Aquamarina Kohlm., Volkm.-Kohlm. &amp; O.E. Erikss., 1996
